--- a/HeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/HeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E83932-ECCC-4397-BBE5-A7EA6A57BBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E972A4AA-E118-4A94-9CF2-C19490FB339C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selectData" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,19 +57,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선택지를 고르세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지3</t>
+    <t>무슨 표정을 지을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화난 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우는 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당황한 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디로 갈까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 처음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이세계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913E3BB2-0B0D-4131-9B47-FF896B83D6E3}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -494,13 +506,36 @@
         <v>12</v>
       </c>
       <c r="G2" s="1">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="H2" s="1">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="I2" s="1">
-        <v>4</v>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/HeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/HeeHeeMotGa/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E972A4AA-E118-4A94-9CF2-C19490FB339C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481B7931-A0C9-41E1-A4E7-F792EAC72871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,31 +57,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무슨 표정을 지을까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화난 표정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우는 표정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당황한 표정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어디로 갈까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 처음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이세계</t>
+    <t>선택지를 고르세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"8"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"-7.8164"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.4856"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913E3BB2-0B0D-4131-9B47-FF896B83D6E3}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -497,45 +485,22 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="1">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="H2" s="1">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="I2" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
